--- a/www/sightability_template.xlsx
+++ b/www/sightability_template.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TBRUSH\R\SightabilityModels\SightabilityShiny\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3083A3-A4F8-4977-8269-F704930AB6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3D26EC-82DD-4338-BDE3-F67713DAA1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{98E60DC4-AE27-46F6-A3E7-A380BFABAC76}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="10044" xr2:uid="{98E60DC4-AE27-46F6-A3E7-A380BFABAC76}"/>
   </bookViews>
   <sheets>
     <sheet name="Welcome" sheetId="20" r:id="rId1"/>
-    <sheet name="Term definitions" sheetId="23" r:id="rId2"/>
-    <sheet name="Example_Data_No_Sightability" sheetId="14" r:id="rId3"/>
-    <sheet name="Example_Data_with_Sightability" sheetId="13" r:id="rId4"/>
-    <sheet name="Example_Summary" sheetId="15" r:id="rId5"/>
-    <sheet name="EPU_list" sheetId="24" r:id="rId6"/>
+    <sheet name="EPU_list" sheetId="24" r:id="rId2"/>
+    <sheet name="Term definitions" sheetId="23" r:id="rId3"/>
+    <sheet name="Example_Data_No_Sightability" sheetId="14" r:id="rId4"/>
+    <sheet name="Example_Data_with_Sightability" sheetId="13" r:id="rId5"/>
+    <sheet name="Example_Summary" sheetId="15" r:id="rId6"/>
     <sheet name="20xx Data" sheetId="21" r:id="rId7"/>
     <sheet name="20xx Summary" sheetId="22" r:id="rId8"/>
   </sheets>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="269">
   <si>
     <t>EPU</t>
   </si>
@@ -646,32 +646,6 @@
   </si>
   <si>
     <t>Take a look at the example sheets in this workbook, and then add your own data in the template sheets. Duplicate these sheets to add more years of data.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tip: the template sheets only allow certain types of data in each column. Warnings and errors will pop up if the values entered are invalid. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>If you are copying and pasting your data in, these warnings may not show up</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. To check the validity of the data, click the Data tab above, click the Data Validation dropdown and select "Circle invalid data". If any cells are circled, these values need to be fixed to ensure the model works.</t>
-    </r>
   </si>
   <si>
     <t>Welcome</t>
@@ -966,6 +940,35 @@
   </si>
   <si>
     <t>Theodosia</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tip: the template sheets only allow certain types of data in each column. Warnings and errors will pop up if the values entered are invalid. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If you are copying and pasting your data in, these warnings may not show up automatically</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. To check the validity of the data, click the Data tab above, click the Data Validation dropdown and select "Circle invalid data". If any cells are circled, these values need to be fixed to ensure the model works.</t>
+    </r>
+  </si>
+  <si>
+    <t>First, build a list of the population unit (EPU) names in your survey region. Alongside each name, you can specify an abbreviation that will be used to auto-correct your survey data. E.g., you may not want to spell out "Theodosia" every time, so you can type "Theo" and the output will include the full name. Case-insensitive.</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1517,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1547,6 +1550,12 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1561,6 +1570,12 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1728,9 +1743,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1768,7 +1783,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1874,7 +1889,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2016,7 +2031,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2027,257 +2042,293 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:T34"/>
+  <dimension ref="B2:T38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B2" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B5" s="6"/>
     </row>
     <row r="6" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
+      <c r="B6" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
     </row>
     <row r="7" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+    </row>
+    <row r="8" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="16"/>
     </row>
     <row r="9" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+    </row>
+    <row r="10" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+    </row>
+    <row r="11" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+    </row>
+    <row r="12" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+    </row>
+    <row r="13" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-    </row>
-    <row r="14" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+    </row>
+    <row r="14" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+    </row>
+    <row r="15" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-    </row>
-    <row r="17" spans="2:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+    </row>
+    <row r="17" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
     </row>
     <row r="19" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
     </row>
     <row r="20" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-    </row>
-    <row r="22" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+    </row>
+    <row r="21" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="19" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -2294,7 +2345,7 @@
       <c r="O22" s="19"/>
       <c r="P22" s="19"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -2328,205 +2379,263 @@
       <c r="O24" s="19"/>
       <c r="P24" s="19"/>
     </row>
-    <row r="26" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-    </row>
-    <row r="27" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
+    <row r="25" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+    </row>
+    <row r="27" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
       <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
     </row>
     <row r="28" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
       <c r="T28" s="9"/>
     </row>
     <row r="29" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
     </row>
-    <row r="30" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
+    <row r="30" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
       <c r="Q30" s="9"/>
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
       <c r="T30" s="9"/>
     </row>
-    <row r="31" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
+    <row r="31" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
     </row>
-    <row r="32" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
+    <row r="32" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
     </row>
     <row r="33" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
     </row>
     <row r="34" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
     </row>
+    <row r="35" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+    </row>
+    <row r="36" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B32:P34"/>
+  <mergeCells count="9">
+    <mergeCell ref="B36:P38"/>
+    <mergeCell ref="B22:P24"/>
+    <mergeCell ref="B6:P7"/>
+    <mergeCell ref="B13:P16"/>
     <mergeCell ref="B18:P20"/>
-    <mergeCell ref="B6:P7"/>
-    <mergeCell ref="B9:P12"/>
-    <mergeCell ref="B14:P16"/>
-    <mergeCell ref="B22:P24"/>
-    <mergeCell ref="B26:P30"/>
+    <mergeCell ref="B26:P28"/>
+    <mergeCell ref="B30:P34"/>
+    <mergeCell ref="B12:P12"/>
+    <mergeCell ref="B9:P11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="64" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2534,10 +2643,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FB4AE1-E550-41C7-868C-493C85DD9E0B}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the names of each EPU in your region" sqref="A2:A1048576" xr:uid="{F0F84893-5749-47E9-9A62-430BF75703B0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="(Optional) Add an abbreviated version of the EPU name. If the program detects this string, it will convert it to the full EPU name. This is also helpful for often-misspelled EPUs (e.g. Theodosia -&gt; Theo)" sqref="B2:B1048576" xr:uid="{47421365-7857-484F-85EE-F5FC49F9AD54}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE31276-CDC7-4089-823A-00BA6C032E64}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -2549,270 +2696,270 @@
   <sheetData>
     <row r="1" spans="1:14" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="26" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
+      <c r="C2" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
     </row>
     <row r="3" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+    </row>
+    <row r="4" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C4" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+    </row>
+    <row r="5" spans="1:14" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
+      <c r="B5" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-    </row>
-    <row r="4" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-    </row>
-    <row r="5" spans="1:14" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
     </row>
     <row r="6" spans="1:14" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
+      <c r="B6" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
     </row>
     <row r="7" spans="1:14" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
+      <c r="B7" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
+      <c r="B8" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
+      <c r="B9" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
     </row>
     <row r="10" spans="1:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
+      <c r="B10" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
+      <c r="B11" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
     </row>
     <row r="12" spans="1:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
+      <c r="B12" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
     </row>
     <row r="13" spans="1:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
+      <c r="B13" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
     </row>
     <row r="14" spans="1:14" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
+      <c r="B14" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2836,7 +2983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B21F97-F8DD-49E4-BD9D-11E23A8B8A3D}">
   <dimension ref="A1:P73"/>
   <sheetViews>
@@ -2851,7 +2998,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -2987,7 +3134,7 @@
         <v>180</v>
       </c>
       <c r="P6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -3076,7 +3223,7 @@
         <v>180</v>
       </c>
       <c r="P10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -3915,7 +4062,7 @@
         <v>180</v>
       </c>
       <c r="P47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -3947,7 +4094,7 @@
         <v>180</v>
       </c>
       <c r="P48" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -4560,7 +4707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8789C85A-875E-4FD0-B712-3044C455B0DC}">
   <dimension ref="A1:P136"/>
   <sheetViews>
@@ -4579,7 +4726,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -4637,7 +4784,7 @@
         <v>2021</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C3" s="2">
         <v>44264</v>
@@ -4675,7 +4822,7 @@
         <v>2021</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C4" s="2">
         <v>44264</v>
@@ -4760,7 +4907,7 @@
         <v>2021</v>
       </c>
       <c r="B6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C6" s="2">
         <v>44236</v>
@@ -4798,7 +4945,7 @@
         <v>2021</v>
       </c>
       <c r="B7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C7" s="2">
         <v>44278</v>
@@ -4836,7 +4983,7 @@
         <v>2021</v>
       </c>
       <c r="B8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C8" s="2">
         <v>44277</v>
@@ -4880,7 +5027,7 @@
         <v>2021</v>
       </c>
       <c r="B9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C9" s="2">
         <v>44236</v>
@@ -4953,7 +5100,7 @@
         <v>2021</v>
       </c>
       <c r="B11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C11" s="2">
         <v>44257</v>
@@ -4983,7 +5130,7 @@
         <v>54</v>
       </c>
       <c r="P11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -5061,7 +5208,7 @@
         <v>2021</v>
       </c>
       <c r="B14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C14" s="2">
         <v>44272</v>
@@ -5254,7 +5401,7 @@
         <v>2021</v>
       </c>
       <c r="B19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C19" s="2">
         <v>44236</v>
@@ -5330,7 +5477,7 @@
         <v>2021</v>
       </c>
       <c r="B21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C21" s="2">
         <v>44256</v>
@@ -5394,7 +5541,7 @@
         <v>2021</v>
       </c>
       <c r="B23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2">
         <v>44277</v>
@@ -5421,7 +5568,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -5429,7 +5576,7 @@
         <v>2021</v>
       </c>
       <c r="B24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2">
         <v>44280</v>
@@ -5508,7 +5655,7 @@
         <v>2021</v>
       </c>
       <c r="B26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C26" s="2">
         <v>44235</v>
@@ -5538,7 +5685,7 @@
         <v>54</v>
       </c>
       <c r="P26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -5576,7 +5723,7 @@
         <v>54</v>
       </c>
       <c r="P27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -5584,7 +5731,7 @@
         <v>2021</v>
       </c>
       <c r="B28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C28" s="2">
         <v>44271</v>
@@ -5649,7 +5796,7 @@
         <v>62</v>
       </c>
       <c r="P29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -5657,7 +5804,7 @@
         <v>2021</v>
       </c>
       <c r="B30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C30" s="2">
         <v>44257</v>
@@ -5687,7 +5834,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -5695,7 +5842,7 @@
         <v>2021</v>
       </c>
       <c r="B31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C31" s="2">
         <v>44235</v>
@@ -5754,7 +5901,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -5833,7 +5980,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -5841,7 +5988,7 @@
         <v>2021</v>
       </c>
       <c r="B35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C35" s="2">
         <v>44271</v>
@@ -5874,7 +6021,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -5915,7 +6062,7 @@
         <v>2</v>
       </c>
       <c r="P36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -5923,7 +6070,7 @@
         <v>2021</v>
       </c>
       <c r="B37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C37" s="2">
         <v>44277</v>
@@ -5956,7 +6103,7 @@
         <v>3</v>
       </c>
       <c r="P37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -5964,7 +6111,7 @@
         <v>2021</v>
       </c>
       <c r="B38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="2">
         <v>44277</v>
@@ -5997,7 +6144,7 @@
         <v>54</v>
       </c>
       <c r="P38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -6005,7 +6152,7 @@
         <v>2021</v>
       </c>
       <c r="B39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C39" s="2">
         <v>44280</v>
@@ -6038,7 +6185,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -6087,7 +6234,7 @@
         <v>2021</v>
       </c>
       <c r="B41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C41" s="2">
         <v>44277</v>
@@ -6131,7 +6278,7 @@
         <v>2021</v>
       </c>
       <c r="B42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C42" s="2">
         <v>44272</v>
@@ -6204,7 +6351,7 @@
         <v>2021</v>
       </c>
       <c r="B44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C44" s="2">
         <v>44271</v>
@@ -6441,7 +6588,7 @@
         <v>2021</v>
       </c>
       <c r="B50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C50" s="2">
         <v>44265</v>
@@ -6482,7 +6629,7 @@
         <v>2021</v>
       </c>
       <c r="B51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C51" s="2">
         <v>44272</v>
@@ -6509,7 +6656,7 @@
         <v>3</v>
       </c>
       <c r="P51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
@@ -6547,7 +6694,7 @@
         <v>54</v>
       </c>
       <c r="P52" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -6591,7 +6738,7 @@
         <v>54</v>
       </c>
       <c r="P53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -6710,7 +6857,7 @@
         <v>2021</v>
       </c>
       <c r="B57" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C57" s="2">
         <v>44266</v>
@@ -6745,7 +6892,7 @@
         <v>2021</v>
       </c>
       <c r="B58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C58" s="2">
         <v>44256</v>
@@ -6777,7 +6924,7 @@
         <v>2021</v>
       </c>
       <c r="B59" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C59" s="2">
         <v>44257</v>
@@ -6853,7 +7000,7 @@
         <v>2021</v>
       </c>
       <c r="B61" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C61" s="2">
         <v>44236</v>
@@ -6888,7 +7035,7 @@
         <v>2021</v>
       </c>
       <c r="B62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C62" s="2">
         <v>44256</v>
@@ -6964,7 +7111,7 @@
         <v>2021</v>
       </c>
       <c r="B64" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C64" s="2">
         <v>44277</v>
@@ -7064,7 +7211,7 @@
         <v>54</v>
       </c>
       <c r="P66" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
@@ -7218,7 +7365,7 @@
         <v>2021</v>
       </c>
       <c r="B71" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C71" s="2">
         <v>44272</v>
@@ -7250,7 +7397,7 @@
         <v>2021</v>
       </c>
       <c r="B72" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C72" s="2">
         <v>44272</v>
@@ -7285,7 +7432,7 @@
         <v>2021</v>
       </c>
       <c r="B73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C73" s="2">
         <v>44256</v>
@@ -7393,7 +7540,7 @@
         <v>2021</v>
       </c>
       <c r="B76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C76" s="2">
         <v>44265</v>
@@ -7425,7 +7572,7 @@
         <v>2021</v>
       </c>
       <c r="B77" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C77" s="2">
         <v>44272</v>
@@ -7457,7 +7604,7 @@
         <v>2021</v>
       </c>
       <c r="B78" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C78" s="2">
         <v>44236</v>
@@ -7493,7 +7640,7 @@
         <v>124</v>
       </c>
       <c r="P78" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
@@ -7537,7 +7684,7 @@
         <v>3</v>
       </c>
       <c r="P79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
@@ -7633,7 +7780,7 @@
         <v>2021</v>
       </c>
       <c r="B82" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C82" s="2">
         <v>44264</v>
@@ -7669,7 +7816,7 @@
         <v>33</v>
       </c>
       <c r="P82" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
@@ -7677,7 +7824,7 @@
         <v>2021</v>
       </c>
       <c r="B83" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C83" s="2">
         <v>44257</v>
@@ -7704,7 +7851,7 @@
         <v>62</v>
       </c>
       <c r="P83" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
@@ -7712,7 +7859,7 @@
         <v>2021</v>
       </c>
       <c r="B84" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C84" s="2">
         <v>44272</v>
@@ -7785,7 +7932,7 @@
         <v>2021</v>
       </c>
       <c r="B86" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C86" s="2">
         <v>44272</v>
@@ -7821,7 +7968,7 @@
         <v>2</v>
       </c>
       <c r="P86" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
@@ -7829,7 +7976,7 @@
         <v>2021</v>
       </c>
       <c r="B87" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C87" s="2">
         <v>44272</v>
@@ -7893,7 +8040,7 @@
         <v>2021</v>
       </c>
       <c r="B89" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C89" s="2">
         <v>44266</v>
@@ -7923,7 +8070,7 @@
         <v>2</v>
       </c>
       <c r="P89" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
@@ -8010,7 +8157,7 @@
         <v>2021</v>
       </c>
       <c r="B92" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C92" s="2">
         <v>44266</v>
@@ -8042,7 +8189,7 @@
         <v>2021</v>
       </c>
       <c r="B93" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C93" s="2">
         <v>44277</v>
@@ -8071,7 +8218,7 @@
         <v>2021</v>
       </c>
       <c r="B94" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C94" s="2">
         <v>44277</v>
@@ -8104,7 +8251,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
@@ -8139,7 +8286,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
@@ -8147,7 +8294,7 @@
         <v>2021</v>
       </c>
       <c r="B96" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C96" s="2">
         <v>44277</v>
@@ -8191,7 +8338,7 @@
         <v>2021</v>
       </c>
       <c r="B97" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C97" s="2">
         <v>44256</v>
@@ -8229,7 +8376,7 @@
         <v>2021</v>
       </c>
       <c r="B98" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C98" s="2">
         <v>44236</v>
@@ -8387,7 +8534,7 @@
         <v>2021</v>
       </c>
       <c r="B102" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C102" s="2">
         <v>44257</v>
@@ -8460,7 +8607,7 @@
         <v>2021</v>
       </c>
       <c r="B104" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C104" s="2">
         <v>44266</v>
@@ -8522,7 +8669,7 @@
         <v>3</v>
       </c>
       <c r="P105" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
@@ -8817,7 +8964,7 @@
         <v>3</v>
       </c>
       <c r="P113" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
@@ -8863,7 +9010,7 @@
         <v>2021</v>
       </c>
       <c r="B115" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C115" s="2">
         <v>44264</v>
@@ -8901,7 +9048,7 @@
         <v>2021</v>
       </c>
       <c r="B116" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C116" s="2">
         <v>44256</v>
@@ -9228,7 +9375,7 @@
         <v>3</v>
       </c>
       <c r="P125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.3">
@@ -9353,7 +9500,7 @@
         <v>2021</v>
       </c>
       <c r="B129" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C129" s="2">
         <v>44272</v>
@@ -9418,7 +9565,7 @@
         <v>33</v>
       </c>
       <c r="P130" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.3">
@@ -9496,7 +9643,7 @@
         <v>2021</v>
       </c>
       <c r="B133" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C133" s="2">
         <v>44256</v>
@@ -9593,7 +9740,7 @@
         <v>3</v>
       </c>
       <c r="P135" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.3">
@@ -9601,7 +9748,7 @@
         <v>2021</v>
       </c>
       <c r="B136" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C136" s="2">
         <v>44257</v>
@@ -9631,7 +9778,7 @@
         <v>3</v>
       </c>
       <c r="P136" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -9640,7 +9787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D464211-1DE3-4520-9FF3-9FB45B9A8A1F}">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -9684,7 +9831,7 @@
         <v>102</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -9909,44 +10056,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FB4AE1-E550-41C7-868C-493C85DD9E0B}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the names of each EPU in your region" sqref="A2:A1048576" xr:uid="{F0F84893-5749-47E9-9A62-430BF75703B0}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="(Optional) Add an abbreviated version of the EPU name. If the program detects this string, it will convert it to the full EPU name. This is also helpful for often-misspelled EPUs (e.g. Theodosia -&gt; Theo)" sqref="B2:B1048576" xr:uid="{47421365-7857-484F-85EE-F5FC49F9AD54}"/>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
